--- a/s2cDNASample/s2CDNASample_J.PLAGGENBERG_06.26.19.xlsx
+++ b/s2cDNASample/s2CDNASample_J.PLAGGENBERG_06.26.19.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
   <si>
     <t xml:space="preserve">H.BROWN</t>
@@ -66,7 +66,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -98,6 +98,13 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -144,7 +151,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -155,6 +162,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -184,8 +195,8 @@
   </sheetPr>
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -259,10 +270,11 @@
       <c r="F2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="b">
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -285,10 +297,11 @@
       <c r="F3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="b">
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -311,10 +324,11 @@
       <c r="F4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="b">
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -337,10 +351,11 @@
       <c r="F5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3" t="b">
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -363,10 +378,11 @@
       <c r="F6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3" t="b">
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -389,10 +405,11 @@
       <c r="F7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3" t="b">
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -400,7 +417,7 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="n">
@@ -409,16 +426,17 @@
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3" t="b">
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -426,7 +444,7 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="n">
@@ -435,16 +453,17 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3" t="b">
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -452,7 +471,7 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="n">
@@ -461,16 +480,17 @@
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3" t="b">
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -478,7 +498,7 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="n">
@@ -487,16 +507,17 @@
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3" t="b">
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -504,7 +525,7 @@
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="n">
@@ -513,16 +534,17 @@
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3" t="b">
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -530,7 +552,7 @@
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="n">
@@ -539,16 +561,17 @@
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="3" t="b">
+      <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -571,10 +594,11 @@
       <c r="F14" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="b">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -597,10 +621,11 @@
       <c r="F15" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3" t="b">
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -623,10 +648,11 @@
       <c r="F16" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="3" t="b">
+      <c r="G16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -649,10 +675,11 @@
       <c r="F17" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="3" t="b">
+      <c r="G17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -675,10 +702,11 @@
       <c r="F18" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="3" t="b">
+      <c r="G18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -701,10 +729,11 @@
       <c r="F19" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="3" t="b">
+      <c r="G19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -712,7 +741,7 @@
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="2" t="n">
@@ -721,16 +750,17 @@
       <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="3" t="b">
+      <c r="G20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -738,7 +768,7 @@
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2" t="n">
@@ -747,16 +777,17 @@
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="3" t="b">
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -764,7 +795,7 @@
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="2" t="n">
@@ -773,16 +804,17 @@
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3" t="b">
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -790,7 +822,7 @@
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="2" t="n">
@@ -799,16 +831,17 @@
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="3" t="b">
+      <c r="G23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -816,7 +849,7 @@
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="2" t="n">
@@ -825,16 +858,17 @@
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="3" t="b">
+      <c r="G24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -842,7 +876,7 @@
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="2" t="n">
@@ -851,16 +885,17 @@
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="3" t="b">
+      <c r="G25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -883,10 +918,11 @@
       <c r="F26" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="3" t="b">
+      <c r="G26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -909,10 +945,11 @@
       <c r="F27" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="3" t="b">
+      <c r="G27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -935,10 +972,11 @@
       <c r="F28" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="3" t="b">
+      <c r="G28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -961,10 +999,11 @@
       <c r="F29" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="b">
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -987,10 +1026,11 @@
       <c r="F30" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="3" t="b">
+      <c r="G30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1013,10 +1053,11 @@
       <c r="F31" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="3" t="b">
+      <c r="G31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1024,7 +1065,7 @@
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2" t="n">
@@ -1033,16 +1074,17 @@
       <c r="D32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="3" t="b">
+      <c r="G32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1050,7 +1092,7 @@
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="2" t="n">
@@ -1059,16 +1101,17 @@
       <c r="D33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="3" t="b">
+      <c r="G33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1076,7 +1119,7 @@
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="2" t="n">
@@ -1085,16 +1128,17 @@
       <c r="D34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="3" t="b">
+      <c r="G34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1102,7 +1146,7 @@
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="2" t="n">
@@ -1111,16 +1155,17 @@
       <c r="D35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="3" t="b">
+      <c r="G35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1128,7 +1173,7 @@
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="2" t="n">
@@ -1137,16 +1182,17 @@
       <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="3" t="b">
+      <c r="G36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1154,7 +1200,7 @@
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="2" t="n">
@@ -1163,16 +1209,17 @@
       <c r="D37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="3" t="b">
+      <c r="G37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1195,10 +1242,11 @@
       <c r="F38" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="3" t="b">
+      <c r="G38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1221,10 +1269,11 @@
       <c r="F39" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="3" t="b">
+      <c r="G39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1247,10 +1296,11 @@
       <c r="F40" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="3" t="b">
+      <c r="G40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1273,10 +1323,11 @@
       <c r="F41" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="3" t="b">
+      <c r="G41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1299,10 +1350,11 @@
       <c r="F42" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="3" t="b">
+      <c r="G42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1325,10 +1377,11 @@
       <c r="F43" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="3" t="b">
+      <c r="G43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1336,7 +1389,7 @@
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="2" t="n">
@@ -1345,16 +1398,17 @@
       <c r="D44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="3" t="b">
+      <c r="G44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1362,7 +1416,7 @@
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="2" t="n">
@@ -1371,16 +1425,17 @@
       <c r="D45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="3" t="b">
+      <c r="G45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1388,7 +1443,7 @@
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="2" t="n">
@@ -1397,16 +1452,17 @@
       <c r="D46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="3" t="b">
+      <c r="G46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1414,7 +1470,7 @@
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="2" t="n">
@@ -1423,16 +1479,17 @@
       <c r="D47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="3" t="b">
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1440,7 +1497,7 @@
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="2" t="n">
@@ -1449,16 +1506,17 @@
       <c r="D48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="3" t="b">
+      <c r="G48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1466,7 +1524,7 @@
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="2" t="n">
@@ -1475,16 +1533,17 @@
       <c r="D49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="3" t="b">
+      <c r="G49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/s2cDNASample/s2CDNASample_J.PLAGGENBERG_06.26.19.xlsx
+++ b/s2cDNASample/s2CDNASample_J.PLAGGENBERG_06.26.19.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">H.BROWN</t>
@@ -195,7 +195,7 @@
   </sheetPr>
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G49"/>
     </sheetView>
   </sheetViews>
@@ -273,8 +273,7 @@
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H2" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -300,8 +299,7 @@
       <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H3" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -327,8 +325,7 @@
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H4" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -354,8 +351,7 @@
       <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H5" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -381,8 +377,7 @@
       <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H6" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -408,8 +403,7 @@
       <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H7" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -435,8 +429,7 @@
       <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H8" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -462,8 +455,7 @@
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H9" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -489,8 +481,7 @@
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H10" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -516,8 +507,7 @@
       <c r="G11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H11" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -543,8 +533,7 @@
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H12" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -570,8 +559,7 @@
       <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H13" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -597,8 +585,7 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H14" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -624,8 +611,7 @@
       <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H15" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -651,8 +637,7 @@
       <c r="G16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H16" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -678,8 +663,7 @@
       <c r="G17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H17" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -705,8 +689,7 @@
       <c r="G18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H18" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -732,8 +715,7 @@
       <c r="G19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H19" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -759,8 +741,7 @@
       <c r="G20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H20" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -786,8 +767,7 @@
       <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H21" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -813,8 +793,7 @@
       <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H22" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -840,8 +819,7 @@
       <c r="G23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H23" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -867,8 +845,7 @@
       <c r="G24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H24" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -894,8 +871,7 @@
       <c r="G25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H25" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -921,8 +897,7 @@
       <c r="G26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H26" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -948,8 +923,7 @@
       <c r="G27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H27" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -975,8 +949,7 @@
       <c r="G28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H28" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,8 +975,7 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H29" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1029,8 +1001,7 @@
       <c r="G30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H30" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1056,8 +1027,7 @@
       <c r="G31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H31" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1083,8 +1053,7 @@
       <c r="G32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H32" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1110,8 +1079,7 @@
       <c r="G33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H33" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1137,8 +1105,7 @@
       <c r="G34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H34" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1164,8 +1131,7 @@
       <c r="G35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H35" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1191,8 +1157,7 @@
       <c r="G36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H36" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1218,8 +1183,7 @@
       <c r="G37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H37" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1245,8 +1209,7 @@
       <c r="G38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H38" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1272,8 +1235,7 @@
       <c r="G39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H39" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1299,8 +1261,7 @@
       <c r="G40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H40" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1326,8 +1287,7 @@
       <c r="G41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H41" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1353,8 +1313,7 @@
       <c r="G42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H42" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1380,8 +1339,7 @@
       <c r="G43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H43" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H43" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1407,8 +1365,7 @@
       <c r="G44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H44" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1434,8 +1391,7 @@
       <c r="G45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H45" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1461,8 +1417,7 @@
       <c r="G46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H46" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1488,8 +1443,7 @@
       <c r="G47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H47" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1515,8 +1469,7 @@
       <c r="G48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H48" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1542,8 +1495,7 @@
       <c r="G49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H49" s="4" t="b">
         <v>0</v>
       </c>
     </row>
